--- a/invoice_items_prepped.xlsx
+++ b/invoice_items_prepped.xlsx
@@ -1756,7 +1756,7 @@
     <t>staffing</t>
   </si>
   <si>
-    <t>up</t>
+    <t>uptown</t>
   </si>
   <si>
     <t xml:space="preserve">Coffee Service </t>
@@ -1768,10 +1768,10 @@
     <t>jingletown</t>
   </si>
   <si>
-    <t>east_oak</t>
-  </si>
-  <si>
-    <t>down</t>
+    <t>east-oak</t>
+  </si>
+  <si>
+    <t>downtown</t>
   </si>
   <si>
     <t>Coffee &amp; Tea Service ($12/thermos)</t>
@@ -1861,7 +1861,7 @@
     <t>Fine</t>
   </si>
   <si>
-    <t>west_oak</t>
+    <t>west-oak</t>
   </si>
   <si>
     <t>Active Voice Portion of Venue Rental</t>
